--- a/documents/testovacie scenare/TS3-Zobrazenie skladu.xlsx
+++ b/documents/testovacie scenare/TS3-Zobrazenie skladu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tis\testovacie scenáre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\d\t\tis\2023\sklad\documents\testovacie scenare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4394558-452A-4AA1-94FF-D10BABCFA874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEB1484-8576-4B22-898B-73095DC344E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B9AC995-C48A-4D81-9586-0FCD7364C34C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6B9AC995-C48A-4D81-9586-0FCD7364C34C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
-  <si>
-    <t>Predpoklady:</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Názov:</t>
   </si>
   <si>
-    <t>Číslo kroku:</t>
-  </si>
-  <si>
     <t>Postup kroku:</t>
   </si>
   <si>
@@ -64,9 +58,6 @@
   </si>
   <si>
     <t>3.</t>
-  </si>
-  <si>
-    <t>Dodatočné informácie:</t>
   </si>
   <si>
     <t>4.</t>
@@ -160,34 +151,53 @@
     <t>Používateľ klikne na tlačidlo jednej z paliet zaskladnených na pozícii.</t>
   </si>
   <si>
+    <t>Zobrazenie skladu.</t>
+  </si>
+  <si>
+    <t>Krok:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Predpoklady: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prístup k aplikácii s právami používateľa.</t>
+    </r>
+  </si>
+  <si>
     <t>Systém vypíše informácie o palete:
-Typ palety
-Hmotnosť
-Nadrozmernosť
-Poškodenosť
-Ponámka
+Typ palety, Hmotnosť, Nadrozmernosť
+Poškodenosť, Ponámka
 Meno skladníka ktorý zaskladňoval paletu
 Zákazník od ktorého palte prišla
 Tabuľku s materiálmi na palete a ich počtami</t>
-  </si>
-  <si>
-    <t>Zobrazenie skladu.</t>
-  </si>
-  <si>
-    <t>Prístup k aplikácii s právami používateľa.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -520,16 +530,12 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -565,10 +571,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -578,9 +584,15 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -599,14 +611,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2904500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2828300</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -651,7 +663,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -947,189 +959,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B99CECF-26F5-4450-9331-183C90F28EAA}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+    <row r="3" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="8"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="22" t="s">
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="23" t="s">
+    </row>
+    <row r="6" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="C6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="25" t="s">
-        <v>4</v>
+      <c r="C12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14" t="s">
-        <v>7</v>
+    <row r="13" spans="2:5" ht="102.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="141.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="27" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="14.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:5" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="53.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="71.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>